--- a/src/main/resources/template/DeliveryNote.xlsx
+++ b/src/main/resources/template/DeliveryNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="4245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17010" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="DeliveryNote" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Do not delete this worksheet.</t>
   </si>
   <si>
-    <t>16-715 28 305B Punggol Rd</t>
-  </si>
-  <si>
     <t>Tel: (65)  69620195</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Website: qingprint.sg</t>
+  </si>
+  <si>
+    <t>#16-715 305B Punggol Rd</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,9 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -906,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -956,8 +953,8 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>27</v>
+      <c r="A2" s="49" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -986,7 +983,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
@@ -1016,17 +1013,17 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
-        <v>28</v>
+      <c r="A4" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="11" t="s">
         <v>4</v>
       </c>
@@ -1050,18 +1047,18 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
-        <v>29</v>
+      <c r="A5" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="12">
         <f ca="1">TODAY()</f>
-        <v>43878</v>
+        <v>43888</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="13"/>
@@ -1083,17 +1080,17 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
-        <v>30</v>
+      <c r="A6" s="49" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1122,8 +1119,8 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="14"/>
       <c r="I7" s="3"/>
       <c r="J7" s="8"/>
@@ -1173,11 +1170,11 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1203,7 +1200,7 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1231,7 +1228,7 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="6"/>
@@ -1259,7 +1256,7 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="6"/>
@@ -1287,7 +1284,7 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="6"/>
@@ -1315,7 +1312,7 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
@@ -1386,7 +1383,10 @@
       <c r="E16" s="6"/>
       <c r="F16" s="29"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="33">
+        <f t="shared" ref="H16:H21" si="0">IF(F16="",ROUND(1*G16,2),ROUND(F16*G16,2))</f>
+        <v>0</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="13"/>
       <c r="K16" s="3"/>
@@ -1414,7 +1414,10 @@
       <c r="E17" s="6"/>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="13"/>
       <c r="K17" s="3"/>
@@ -1442,7 +1445,10 @@
       <c r="E18" s="6"/>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="13"/>
       <c r="K18" s="3"/>
@@ -1470,7 +1476,10 @@
       <c r="E19" s="6"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="19"/>
       <c r="K19" s="3"/>
@@ -1498,7 +1507,10 @@
       <c r="E20" s="6"/>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="19"/>
       <c r="K20" s="3"/>
@@ -1526,7 +1538,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="19"/>
       <c r="K21" s="3"/>
@@ -1547,15 +1562,15 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34">
-        <f t="shared" ref="H22:H24" si="0">IF(F22="",ROUND(1*G22,2),ROUND(F22*G22,2))</f>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33">
+        <f>IF(F22="",ROUND(1*G22,2),ROUND(F22*G22,2))</f>
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
@@ -1578,15 +1593,15 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34">
-        <f t="shared" si="0"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33">
+        <f t="shared" ref="H22:H24" si="1">IF(F23="",ROUND(1*G23,2),ROUND(F23*G23,2))</f>
         <v>0</v>
       </c>
       <c r="I23" s="3"/>
@@ -1609,15 +1624,15 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34">
-        <f t="shared" si="0"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="3"/>
@@ -1640,16 +1655,16 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="55"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="23"/>
       <c r="J25" s="13"/>
       <c r="K25" s="23"/>
@@ -1698,7 +1713,7 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="3"/>
@@ -1728,14 +1743,14 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1756,18 +1771,18 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="38" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="38" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="3"/>
@@ -1818,16 +1833,16 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="3"/>
       <c r="J31" s="13"/>
       <c r="K31" s="3"/>
@@ -28872,162 +28887,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="42"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="41"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="41"/>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="41"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="41"/>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="41"/>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="42"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="42"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
